--- a/data-raw/_raw/vn/2019/rd_20190724-phen.xlsx
+++ b/data-raw/_raw/vn/2019/rd_20190724-phen.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -55,9 +55,6 @@
     <t>What: Plant phenology</t>
   </si>
   <si>
-    <t>stage_Vx</t>
-  </si>
-  <si>
     <t>plht_cm</t>
   </si>
   <si>
@@ -68,6 +65,18 @@
   </si>
   <si>
     <t xml:space="preserve">Notes: Some phenology areas are in funky parts of C4 plots. </t>
+  </si>
+  <si>
+    <t>V14</t>
+  </si>
+  <si>
+    <t>V15</t>
+  </si>
+  <si>
+    <t>V12</t>
+  </si>
+  <si>
+    <t>stage</t>
   </si>
 </sst>
 </file>
@@ -462,8 +471,8 @@
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -495,17 +504,17 @@
     </row>
     <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -537,13 +546,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>6</v>
@@ -576,8 +585,8 @@
         <v>145</v>
       </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="11">
-        <v>14</v>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H7" s="11">
         <v>14</v>
@@ -604,8 +613,8 @@
         <v>145</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="11">
-        <v>15</v>
+      <c r="G8" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H8" s="11">
         <v>15</v>
@@ -632,8 +641,8 @@
         <v>140</v>
       </c>
       <c r="F9" s="18"/>
-      <c r="G9" s="11">
-        <v>14</v>
+      <c r="G9" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H9" s="11">
         <v>14</v>
@@ -664,8 +673,8 @@
         <v>131</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="18">
-        <v>14</v>
+      <c r="G10" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="H10" s="18">
         <v>14</v>
@@ -692,8 +701,8 @@
         <v>136</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="18">
-        <v>14</v>
+      <c r="G11" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="H11" s="18">
         <v>14</v>
@@ -720,8 +729,8 @@
         <v>117</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="18">
-        <v>14</v>
+      <c r="G12" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="H12" s="18">
         <v>14</v>
@@ -752,8 +761,8 @@
         <v>154</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="18">
-        <v>14</v>
+      <c r="G13" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="H13" s="18">
         <v>14</v>
@@ -780,8 +789,8 @@
         <v>156</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="18">
-        <v>15</v>
+      <c r="G14" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="H14" s="18">
         <v>15</v>
@@ -808,8 +817,8 @@
         <v>161</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="18">
-        <v>14</v>
+      <c r="G15" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="H15" s="18">
         <v>14</v>
@@ -840,8 +849,8 @@
         <v>147</v>
       </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="18">
-        <v>14</v>
+      <c r="G16" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="H16" s="18">
         <v>14</v>
@@ -868,8 +877,8 @@
         <v>154</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="18">
-        <v>15</v>
+      <c r="G17" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="H17" s="18">
         <v>15</v>
@@ -896,8 +905,8 @@
         <v>155</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="18">
-        <v>14</v>
+      <c r="G18" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="H18" s="18">
         <v>14</v>
@@ -928,8 +937,8 @@
         <v>143</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>15</v>
+      <c r="G19" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="H19" s="18">
         <v>15</v>
@@ -956,8 +965,8 @@
         <v>142</v>
       </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="19">
-        <v>14</v>
+      <c r="G20" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="H20" s="19">
         <v>14</v>
@@ -983,8 +992,8 @@
         <v>144</v>
       </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="19">
-        <v>14</v>
+      <c r="G21" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="H21" s="19">
         <v>14</v>
@@ -1014,8 +1023,8 @@
         <v>126</v>
       </c>
       <c r="F22" s="19"/>
-      <c r="G22" s="19">
-        <v>12</v>
+      <c r="G22" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="H22" s="19">
         <v>12</v>
@@ -1041,8 +1050,8 @@
         <v>137</v>
       </c>
       <c r="F23" s="19"/>
-      <c r="G23" s="19">
-        <v>12</v>
+      <c r="G23" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="H23" s="19">
         <v>12</v>
@@ -1068,8 +1077,8 @@
         <v>123</v>
       </c>
       <c r="F24" s="19"/>
-      <c r="G24" s="19">
-        <v>12</v>
+      <c r="G24" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="H24" s="19">
         <v>12</v>
@@ -1099,8 +1108,8 @@
         <v>140</v>
       </c>
       <c r="F25" s="19"/>
-      <c r="G25" s="19">
-        <v>14</v>
+      <c r="G25" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="H25" s="19">
         <v>14</v>
@@ -1126,8 +1135,8 @@
         <v>152</v>
       </c>
       <c r="F26" s="19"/>
-      <c r="G26" s="19">
-        <v>14</v>
+      <c r="G26" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="H26" s="19">
         <v>14</v>
@@ -1153,8 +1162,8 @@
         <v>148</v>
       </c>
       <c r="F27" s="19"/>
-      <c r="G27" s="19">
-        <v>15</v>
+      <c r="G27" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="H27" s="19">
         <v>15</v>
@@ -1184,8 +1193,8 @@
         <v>158</v>
       </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="20">
-        <v>15</v>
+      <c r="G28" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="H28" s="20">
         <v>15</v>
@@ -1205,8 +1214,8 @@
         <v>158</v>
       </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="20">
-        <v>14</v>
+      <c r="G29" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="H29" s="20">
         <v>14</v>
@@ -1226,8 +1235,8 @@
         <v>159</v>
       </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="20">
-        <v>14</v>
+      <c r="G30" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="H30" s="20">
         <v>14</v>
